--- a/companies/nvidia/ir-data/template.xlsx
+++ b/companies/nvidia/ir-data/template.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
   <si>
     <t>期間</t>
   </si>
@@ -74,37 +74,13 @@
     <t>EPS</t>
   </si>
   <si>
-    <t>ROE</t>
-  </si>
-  <si>
     <t>PER</t>
   </si>
   <si>
     <t>PER4移動平均</t>
   </si>
   <si>
-    <t>計算PER</t>
-  </si>
-  <si>
     <t>株価</t>
-  </si>
-  <si>
-    <t>時価総額</t>
-  </si>
-  <si>
-    <t>設定パラメータ</t>
-  </si>
-  <si>
-    <t>発行株数</t>
-  </si>
-  <si>
-    <t>売上上昇倍率</t>
-  </si>
-  <si>
-    <t>純利益売上比</t>
-  </si>
-  <si>
-    <t>目標PER</t>
   </si>
 </sst>
 </file>
@@ -481,14 +457,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U35"/>
+  <dimension ref="A2:A26"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="0" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="2:21" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -611,46 +586,6 @@
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/companies/nvidia/ir-data/template.xlsx
+++ b/companies/nvidia/ir-data/template.xlsx
@@ -10,28 +10,6 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Author</author>
-  </authors>
-  <commentList>
-    <comment ref="A3" authorId="0">
-      <text/>
-    </comment>
-    <comment ref="A6" authorId="0">
-      <text/>
-    </comment>
-    <comment ref="A9" authorId="0">
-      <text/>
-    </comment>
-    <comment ref="A13" authorId="0">
-      <text/>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
   <si>
@@ -87,7 +65,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <color theme="1"/>
       <family val="2"/>
@@ -95,16 +77,82 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <color rgb="FF666666"/>
+      <sz val="9"/>
+    </font>
+    <font>
+      <sz val="10"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF1F3864"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF2E75B6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2EFDA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F7EE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD6E4F0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEBF1F8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCE4D6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFDF2EC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2D9F0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF0ECF7"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -112,12 +160,135 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD0D0D0"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD0D0D0"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFD0D0D0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD0D0D0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD0D0D0"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD0D0D0"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFD0D0D0"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFB0B0B0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -457,138 +628,676 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:A26"/>
+  <dimension ref="A1:U26"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="0" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="21" width="11" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="1" ht="22" customHeight="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+    </row>
+    <row r="2" ht="20" customHeight="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="14"/>
+      <c r="U8" s="14"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="16"/>
+      <c r="T9" s="16"/>
+      <c r="U9" s="16"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18"/>
+      <c r="R10" s="18"/>
+      <c r="S10" s="18"/>
+      <c r="T10" s="18"/>
+      <c r="U10" s="18"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16"/>
+      <c r="S11" s="16"/>
+      <c r="T11" s="16"/>
+      <c r="U11" s="16"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="18"/>
+      <c r="S12" s="18"/>
+      <c r="T12" s="18"/>
+      <c r="U12" s="18"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="19" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="20"/>
+      <c r="T13" s="20"/>
+      <c r="U13" s="20"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="21" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="22"/>
+      <c r="S14" s="22"/>
+      <c r="T14" s="22"/>
+      <c r="U14" s="22"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="17" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="18"/>
+      <c r="R15" s="18"/>
+      <c r="S15" s="18"/>
+      <c r="T15" s="18"/>
+      <c r="U15" s="18"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="10"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="12"/>
+      <c r="T17" s="12"/>
+      <c r="U17" s="12"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="14"/>
+      <c r="T18" s="14"/>
+      <c r="U18" s="14"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A19" s="23" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="24"/>
+      <c r="Q19" s="24"/>
+      <c r="R19" s="24"/>
+      <c r="S19" s="24"/>
+      <c r="T19" s="24"/>
+      <c r="U19" s="24"/>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="10"/>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="12"/>
+      <c r="S21" s="12"/>
+      <c r="T21" s="12"/>
+      <c r="U21" s="12"/>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="14"/>
+      <c r="S22" s="14"/>
+      <c r="T22" s="14"/>
+      <c r="U22" s="14"/>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A23" s="25" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="26"/>
+      <c r="O23" s="26"/>
+      <c r="P23" s="26"/>
+      <c r="Q23" s="26"/>
+      <c r="R23" s="26"/>
+      <c r="S23" s="26"/>
+      <c r="T23" s="26"/>
+      <c r="U23" s="26"/>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A24" s="27" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="28"/>
+      <c r="M24" s="28"/>
+      <c r="N24" s="28"/>
+      <c r="O24" s="28"/>
+      <c r="P24" s="28"/>
+      <c r="Q24" s="28"/>
+      <c r="R24" s="28"/>
+      <c r="S24" s="28"/>
+      <c r="T24" s="28"/>
+      <c r="U24" s="28"/>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A25" s="29" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="30"/>
+      <c r="N25" s="30"/>
+      <c r="O25" s="30"/>
+      <c r="P25" s="30"/>
+      <c r="Q25" s="30"/>
+      <c r="R25" s="30"/>
+      <c r="S25" s="30"/>
+      <c r="T25" s="30"/>
+      <c r="U25" s="30"/>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A26" s="27" t="s">
         <v>15</v>
       </c>
+      <c r="B26" s="31"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="31"/>
+      <c r="M26" s="31"/>
+      <c r="N26" s="31"/>
+      <c r="O26" s="31"/>
+      <c r="P26" s="31"/>
+      <c r="Q26" s="31"/>
+      <c r="R26" s="31"/>
+      <c r="S26" s="31"/>
+      <c r="T26" s="31"/>
+      <c r="U26" s="31"/>
     </row>
   </sheetData>
-  <legacyDrawing r:id="rId2"/>
+  <mergeCells count="5">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:U1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>